--- a/data/Wichita-State-U.xlsx
+++ b/data/Wichita-State-U.xlsx
@@ -6769,7 +6769,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>All part-time studentsAll full-time students</t>
+          <t>All students</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -6806,7 +6806,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">    MaleMale</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -6843,7 +6843,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    FemaleFemale</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -6880,7 +6880,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  U.S. citizens and permanent residentsU.S. citizens and permanent residents</t>
+          <t>U.S. citizens and permanent residents</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -6917,7 +6917,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Hispanic or LatinoHispanic or Latino</t>
+          <t>Hispanic or Latino</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -6954,7 +6954,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Not Hispanic or LatinoNot Hispanic or Latino</t>
+          <t>Not Hispanic or Latino</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -6991,7 +6991,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">      American Indian or Alaska NativeAmerican Indian or Alaska Native</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -7028,7 +7028,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">      AsianAsian</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -7065,7 +7065,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">      Black or African AmericanBlack or African American</t>
+          <t>Black or African American</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -7102,7 +7102,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">      Native Hawaiian or Other Pacific IslanderNative Hawaiian or Other Pacific Islander</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -7139,7 +7139,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">      WhiteWhite</t>
+          <t>White</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -7176,7 +7176,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">      More than one raceMore than one race</t>
+          <t>More than one race</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -7213,7 +7213,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Unknown ethnicity and raceUnknown ethnicity and race</t>
+          <t>Unknown ethnicity and race</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -7250,7 +7250,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Temporary visa holdersTemporary visa holders</t>
+          <t>Temporary visa holders</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -7287,7 +7287,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Science and engineeringScience and engineering</t>
+          <t>Science and engineering</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -7324,7 +7324,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">    ScienceScience</t>
+          <t>Science</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -7361,7 +7361,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">      Agricultural and veterinary sciencesAgricultural and veterinary sciences</t>
+          <t>Agricultural and veterinary sciences</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -7398,7 +7398,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">      Biological and biomedical sciencesBiological and biomedical sciences</t>
+          <t>Biological and biomedical sciences</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -7435,7 +7435,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">      CommunicationCommunication</t>
+          <t>Communication</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -7472,7 +7472,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">      Computer and information sciencesComputer and information sciences</t>
+          <t>Computer and information sciences</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -7509,7 +7509,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">      Family and consumer sciences and human sciencesFamily and consumer sciences and human sciences</t>
+          <t>Family and consumer sciences and human sciences</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -7546,7 +7546,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">      Geosciences, atmospheric sciences, and ocean sciencesGeosciences, atmospheric sciences, and ocean sciences</t>
+          <t>Geosciences, atmospheric sciences, and ocean sciences</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -7583,7 +7583,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">      Mathematics and statisticsMathematics and statistics</t>
+          <t>Mathematics and statistics</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -7620,7 +7620,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">      Multidisciplinary and interdisciplinary studiesMultidisciplinary and interdisciplinary studies</t>
+          <t>Multidisciplinary and interdisciplinary studies</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -7657,7 +7657,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">      Natural resources and conservationNatural resources and conservation</t>
+          <t>Natural resources and conservation</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -7694,7 +7694,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">      PsychologyPsychology</t>
+          <t>Psychology</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -7731,7 +7731,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">      Physical sciencesPhysical sciences</t>
+          <t>Physical sciences</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -7768,7 +7768,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">      Social sciencesSocial sciences</t>
+          <t>Social sciences</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -7805,7 +7805,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">    EngineeringEngineering</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -7842,7 +7842,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">      Aerospace, aeronautical, and astronautical engineeringAerospace, aeronautical, and astronautical engineering</t>
+          <t>Aerospace, aeronautical, and astronautical engineering</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -7879,7 +7879,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">      Biological, biomedical, and biosystems engineeringBiological, biomedical, and biosystems engineering</t>
+          <t>Biological, biomedical, and biosystems engineering</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -7916,7 +7916,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">      Chemical, petroleum, and chemical-related engineeringChemical, petroleum, and chemical-related engineering</t>
+          <t>Chemical, petroleum, and chemical-related engineering</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -7953,7 +7953,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">      Civil, environmental, transportation and related engineering fieldsCivil, environmental, transportation and related engineering fields</t>
+          <t>Civil, environmental, transportation and related engineering fields</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -7990,7 +7990,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">      Electrical, electronics, communications and computer engineeringElectrical, electronics, communications and computer engineering</t>
+          <t>Electrical, electronics, communications and computer engineering</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -8027,7 +8027,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">      Industrial, manufacturing, systems engineering and operations researchIndustrial, manufacturing, systems engineering and operations research</t>
+          <t>Industrial, manufacturing, systems engineering and operations research</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -8064,7 +8064,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">      Mechanical engineeringMechanical engineering</t>
+          <t>Mechanical engineering</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -8101,7 +8101,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">      Metallurgical, mining, materials and related engineering fieldsMetallurgical, mining, materials and related engineering fields</t>
+          <t>Metallurgical, mining, materials and related engineering fields</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -8138,7 +8138,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">      Other engineeringOther engineering</t>
+          <t>Other engineering</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -8175,7 +8175,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">    HealthHealth</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -8212,7 +8212,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">      Clinical medicineClinical medicine</t>
+          <t>Clinical medicine</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -8249,7 +8249,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">      Other healthOther health</t>
+          <t>Other health</t>
         </is>
       </c>
       <c r="B42" t="n">
